--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -329,7 +329,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>NameRepresentationUse</t>
+    <t>nameRepresentationUse</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {iso21090-EN-representation}
@@ -855,7 +855,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.7109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.0859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -855,41 +855,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="22.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.71484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.0859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="25.6796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="40.6171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="40.62109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="19.484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="19.48828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="56.171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="56.17578125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="30.98828125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="24.78515625" customWidth="true" bestFit="true"/>
   </cols>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -396,15 +396,15 @@
     <t>HumanName.text</t>
   </si>
   <si>
-    <t>Text representation of the full name　名前全体のテキスト表現</t>
+    <t>Text representation of the full name　名前全体のテキスト表現。姓と名をこの順番で空白1文字を区切り文字として格納する</t>
   </si>
   <si>
     <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.
-アプリケーションUIなどで、表示する名前全体を指定する。名前の特定の部分の代わり、または特定の部分と同じとして使われることがある。</t>
+アプリケーションUIなどで、表示する名前全体を指定する。名前の特定の部分の代わり、または特定の部分と同じとして使われることがある。姓と名をこの順番で空白1文字を区切り文字として格納する</t>
   </si>
   <si>
     <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.
-テキスト要素の表現とその部分構成要素の両方を提供できる。名前を更新するアプリケーションは、テキストと部分構成要素の両方が存在する場合、部分構成要素にないコンテンツがテキスト要素に含まれないようにする必要がある。</t>
+テキスト要素の表現とその部分構成要素の両方を提供できる。名前を更新するアプリケーションは、テキストと部分構成要素の両方が存在する場合、部分構成要素にないコンテンツがテキスト要素に含まれないようにする必要がある。姓と名をこの順番で空白1文字を区切り文字として格納する</t>
   </si>
   <si>
     <t>A renderable, unencoded form.</t>
@@ -864,7 +864,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.14453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -525,7 +525,7 @@
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
 Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
-Period（期間）は時間の範囲を指定します。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。
+Period（期間）は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。
 Period（期間）は、Duration（時間区間＝経過時間の測定値）には使用されない。 [Duration]（datatypes.html＃Duration）を参照のこと。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -264,7 +264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -287,10 +287,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -325,8 +325,8 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>nameRepresentationUse</t>
@@ -336,7 +336,7 @@
 </t>
   </si>
   <si>
-    <t>ABC | IDE | SYL</t>
+    <t>ABC |IDE |Syl / ABC | IDE | SYL</t>
   </si>
   <si>
     <t>Name Representation.
@@ -360,7 +360,7 @@
 </t>
   </si>
   <si>
-    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+    <t>通常|公式|温度|ニックネーム|匿名|古い|乙女 / usual | official | temp | nickname | anonymous | old | maiden</t>
   </si>
   <si>
     <t>Identifies the purpose for this name.
@@ -378,7 +378,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>The use of a human name.</t>
+    <t>人間名の使用。 / The use of a human name.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
@@ -407,7 +407,7 @@
 テキスト要素の表現とその部分構成要素の両方を提供できる。名前を更新するアプリケーションは、テキストと部分構成要素の両方が存在する場合、部分構成要素にないコンテンツがテキスト要素に含まれないようにする必要がある。姓と名をこの順番で空白1文字を区切り文字として格納する</t>
   </si>
   <si>
-    <t>A renderable, unencoded form.</t>
+    <t>レンダリング可能で、不コード化されていないフォーム。 / A renderable, unencoded form.</t>
   </si>
   <si>
     <t>implied by XPN.11</t>
@@ -529,7 +529,7 @@
 Period（期間）は、Duration（時間区間＝経過時間の測定値）には使用されない。 [Duration]（datatypes.html＃Duration）を参照のこと。</t>
   </si>
   <si>
-    <t>Allows names to be placed in historical context.</t>
+    <t>名前を歴史的な文脈に配置できます。 / Allows names to be placed in historical context.</t>
   </si>
   <si>
     <t>XPN.13 + XPN.14</t>
@@ -864,7 +864,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.1015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -877,7 +877,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="25.6796875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="35.1640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="40.62109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -264,7 +264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -287,10 +287,10 @@
 </t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -325,8 +325,8 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>nameRepresentationUse</t>
@@ -336,7 +336,7 @@
 </t>
   </si>
   <si>
-    <t>ABC |IDE |Syl / ABC | IDE | SYL</t>
+    <t>ABC | IDE | SYL</t>
   </si>
   <si>
     <t>Name Representation.
@@ -360,7 +360,7 @@
 </t>
   </si>
   <si>
-    <t>通常|公式|温度|ニックネーム|匿名|古い|乙女 / usual | official | temp | nickname | anonymous | old | maiden</t>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
   </si>
   <si>
     <t>Identifies the purpose for this name.
@@ -378,7 +378,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>人間名の使用。 / The use of a human name.</t>
+    <t>The use of a human name.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
@@ -407,7 +407,7 @@
 テキスト要素の表現とその部分構成要素の両方を提供できる。名前を更新するアプリケーションは、テキストと部分構成要素の両方が存在する場合、部分構成要素にないコンテンツがテキスト要素に含まれないようにする必要がある。姓と名をこの順番で空白1文字を区切り文字として格納する</t>
   </si>
   <si>
-    <t>レンダリング可能で、不コード化されていないフォーム。 / A renderable, unencoded form.</t>
+    <t>A renderable, unencoded form.</t>
   </si>
   <si>
     <t>implied by XPN.11</t>
@@ -529,7 +529,7 @@
 Period（期間）は、Duration（時間区間＝経過時間の測定値）には使用されない。 [Duration]（datatypes.html＃Duration）を参照のこと。</t>
   </si>
   <si>
-    <t>名前を歴史的な文脈に配置できます。 / Allows names to be placed in historical context.</t>
+    <t>Allows names to be placed in historical context.</t>
   </si>
   <si>
     <t>XPN.13 + XPN.14</t>
@@ -864,7 +864,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.1015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.14453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -877,7 +877,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="35.1640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="25.6796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="40.62109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -396,15 +396,15 @@
     <t>HumanName.text</t>
   </si>
   <si>
-    <t>Text representation of the full name　名前全体のテキスト表現。姓と名をこの順番で空白1文字を区切り文字として格納する</t>
+    <t>Text representation of the full name　名前全体のテキスト表現。姓と名をこの順番で半角空白1文字を区切り文字として格納する</t>
   </si>
   <si>
     <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.
-アプリケーションUIなどで、表示する名前全体を指定する。名前の特定の部分の代わり、または特定の部分と同じとして使われることがある。姓と名をこの順番で空白1文字を区切り文字として格納する</t>
+アプリケーションUIなどで、表示する名前全体を指定する。名前の特定の部分の代わり、または特定の部分と同じとして使われることがある。姓と名をこの順番で半角空白1文字を区切り文字として格納する</t>
   </si>
   <si>
     <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.
-テキスト要素の表現とその部分構成要素の両方を提供できる。名前を更新するアプリケーションは、テキストと部分構成要素の両方が存在する場合、部分構成要素にないコンテンツがテキスト要素に含まれないようにする必要がある。姓と名をこの順番で空白1文字を区切り文字として格納する</t>
+テキスト要素の表現とその部分構成要素の両方を提供できる。名前を更新するアプリケーションは、テキストと部分構成要素の両方が存在する場合、部分構成要素にないコンテンツがテキスト要素に含まれないようにする必要がある。姓と名をこの順番で半角空白1文字を区切り文字として格納する</t>
   </si>
   <si>
     <t>A renderable, unencoded form.</t>
@@ -864,7 +864,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.34375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -457,7 +457,7 @@
 名前の名の部分。</t>
   </si>
   <si>
-    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to practical limitations.  This element is not called "first name" since given names do not always come first.
 イニシャルのみが記録されている場合は、フルネームの部分の代わりに使用できる。イニシャルは複数の名前に分けることができるが、多くの場合、実用的な制限のためではない。名が常に最初に来るとは限らないため、この要素は「first name」とは呼ばない。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -253,7 +253,7 @@
   </si>
   <si>
     <t>A human's name with the ability to identify parts and usage.
-識別のための人の名前情報、</t>
+識別のための人の名前情報</t>
   </si>
   <si>
     <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="167">
   <si>
     <t>Property</t>
   </si>
@@ -302,14 +302,21 @@
     <t>HumanName.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -1230,11 +1237,11 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>77</v>
@@ -1249,15 +1256,17 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>75</v>
@@ -1294,19 +1303,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1318,13 +1327,13 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>75</v>
@@ -1335,18 +1344,18 @@
         <v>93</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F5" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
       </c>
@@ -1357,16 +1366,16 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1416,7 +1425,7 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
@@ -1428,13 +1437,13 @@
         <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>75</v>
@@ -1442,7 +1451,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1459,25 +1468,25 @@
         <v>75</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O6" t="s" s="2">
         <v>75</v>
@@ -1502,13 +1511,13 @@
         <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>75</v>
@@ -1526,7 +1535,7 @@
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
@@ -1541,18 +1550,18 @@
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1572,22 +1581,22 @@
         <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O7" t="s" s="2">
         <v>75</v>
@@ -1636,7 +1645,7 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
@@ -1651,10 +1660,10 @@
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>75</v>
@@ -1662,11 +1671,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1682,19 +1691,19 @@
         <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1744,7 +1753,7 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -1759,22 +1768,22 @@
         <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1790,19 +1799,19 @@
         <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1852,7 +1861,7 @@
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -1867,18 +1876,18 @@
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1898,19 +1907,19 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -1960,7 +1969,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -1975,18 +1984,18 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2006,19 +2015,19 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2068,7 +2077,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2083,10 +2092,10 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>75</v>
@@ -2094,7 +2103,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2114,22 +2123,22 @@
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>75</v>
@@ -2178,7 +2187,7 @@
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -2193,13 +2202,13 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはHumanName DataTypeに対して、患者のデータを送受信するための基礎となる制約と拡張を定めたものである。</t>
+    <t>このデータタイプはHumanName DataTypeに対して、患者データを送受信するための基礎となる制約と拡張を定めたものである。</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -457,7 +457,7 @@
 middle name</t>
   </si>
   <si>
-    <t>Given names (not always 'first'). Includes middle names　名前の名の部分で、ミドルネームを含む。</t>
+    <t>Given names (not always 'first'). Includes middle names　名前の名の部分で、ミドルネームを含む</t>
   </si>
   <si>
     <t>Given name.

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -531,7 +531,7 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
 Period（期間）は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。
 Period（期間）は、Duration（時間区間＝経過時間の測定値）には使用されない。 [Duration]（datatypes.html＃Duration）を参照のこと。</t>
   </si>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="168">
   <si>
     <t>Property</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
   </si>
   <si>
     <t>FHIR Version</t>
@@ -264,131 +267,131 @@
 </t>
   </si>
   <si>
+    <t>XPN</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>ProviderName</t>
+  </si>
+  <si>
+    <t>HumanName.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>HumanName.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>nameRepresentationUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-EN-representation}
+</t>
+  </si>
+  <si>
+    <t>ABC | IDE | SYL</t>
+  </si>
+  <si>
+    <t>Name Representation.
+名前の表現方法</t>
+  </si>
+  <si>
+    <t>The transcription of the name - how it is represented (for e.g. Japanese names).
+名前の文字起こし-表現方法（日本の名前など）。</t>
+  </si>
+  <si>
+    <t>ENXP.use</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.
+この名前の使用目的</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.
+アプリケーションは、名前が明示的に一時的な名前（temp ）あるいは以前の名前だ（old ）と設定されていない場合には、現時点での名前だとみなしてよい。</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.
+一連の名前の中から、特定の使用状況に適した名前を選択できるようになる。</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>XPN</t>
-  </si>
-  <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>ProviderName</t>
-  </si>
-  <si>
-    <t>HumanName.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>HumanName.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>nameRepresentationUse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-EN-representation}
-</t>
-  </si>
-  <si>
-    <t>ABC | IDE | SYL</t>
-  </si>
-  <si>
-    <t>Name Representation.
-名前の表現方法</t>
-  </si>
-  <si>
-    <t>The transcription of the name - how it is represented (for e.g. Japanese names).
-名前の文字起こし-表現方法（日本の名前など）。</t>
-  </si>
-  <si>
-    <t>ENXP.use</t>
-  </si>
-  <si>
-    <t>HumanName.use</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this name.
-この名前の使用目的</t>
-  </si>
-  <si>
-    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.
-アプリケーションは、名前が明示的に一時的な名前（temp ）あるいは以前の名前だ（old ）と設定されていない場合には、現時点での名前だとみなしてよい。</t>
-  </si>
-  <si>
-    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.
-一連の名前の中から、特定の使用状況に適した名前を選択できるようになる。</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The use of a human name.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
   </si>
   <si>
     <t>XPN.7, but often indicated by which field contains the name</t>
@@ -794,55 +797,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -903,217 +906,217 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>83</v>
@@ -1131,23 +1134,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>88</v>
@@ -1161,74 +1164,74 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -1241,19 +1244,19 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>95</v>
@@ -1269,38 +1272,38 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>99</v>
@@ -1309,7 +1312,7 @@
         <v>100</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>101</v>
@@ -1318,25 +1321,25 @@
         <v>102</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -1347,23 +1350,23 @@
         <v>104</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>105</v>
@@ -1379,74 +1382,74 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1455,17 +1458,17 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>111</v>
@@ -1489,26 +1492,26 @@
         <v>116</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>117</v>
@@ -1520,65 +1523,65 @@
         <v>119</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>110</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>111</v>
@@ -1587,108 +1590,108 @@
         <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>111</v>
@@ -1697,106 +1700,106 @@
         <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>111</v>
@@ -1805,106 +1808,106 @@
         <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>111</v>
@@ -1913,106 +1916,106 @@
         <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>111</v>
@@ -2021,194 +2024,194 @@
         <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>111</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="170">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -333,6 +336,9 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>HumanName.extension:nameRepresentationUse</t>
   </si>
   <si>
     <t>nameRepresentationUse</t>
@@ -855,7 +861,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL12"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -864,44 +870,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="22.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.71484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.0859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.90625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.6171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.71484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="13.0859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.34375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="38.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="95.703125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="25.6796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="40.62109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="19.48828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="25.6796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="40.62109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="19.48828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="56.17578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="30.98828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.78515625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="56.17578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="30.98828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="24.78515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1019,36 +1025,39 @@
       <c r="AL1" t="s" s="1">
         <v>75</v>
       </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>80</v>
@@ -1056,70 +1065,70 @@
       <c r="M2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="N2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>84</v>
@@ -1127,33 +1136,36 @@
       <c r="AL2" t="s" s="2">
         <v>85</v>
       </c>
+      <c r="AM2" t="s" s="2">
+        <v>86</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>89</v>
@@ -1161,105 +1173,108 @@
       <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="B4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>96</v>
@@ -1270,948 +1285,975 @@
       <c r="M4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="N4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
+      </c>
+      <c r="AM4" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
+      </c>
+      <c r="AM5" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O6" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="P6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG6" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="AM6" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="O7" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH7" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI7" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>132</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI8" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>148</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>155</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>76</v>
+        <v>160</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="171">
   <si>
     <t>Property</t>
   </si>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Name of a human - parts and usage　人の名前情報、その一部分と使い方</t>
@@ -1057,16 +1061,16 @@
         <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1125,27 +1129,27 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1156,7 +1160,7 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>77</v>
@@ -1168,13 +1172,13 @@
         <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1225,13 +1229,13 @@
         <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>77</v>
@@ -1243,7 +1247,7 @@
         <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM3" t="s" s="2">
         <v>77</v>
@@ -1251,14 +1255,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1277,16 +1281,16 @@
         <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1324,19 +1328,19 @@
         <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
@@ -1348,13 +1352,13 @@
         <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>77</v>
@@ -1362,13 +1366,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>77</v>
@@ -1378,7 +1382,7 @@
         <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>77</v>
@@ -1390,16 +1394,16 @@
         <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1449,7 +1453,7 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -1461,13 +1465,13 @@
         <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>77</v>
@@ -1475,10 +1479,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1489,31 +1493,31 @@
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P6" t="s" s="2">
         <v>77</v>
@@ -1538,13 +1542,13 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
@@ -1562,36 +1566,36 @@
         <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1602,7 +1606,7 @@
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>77</v>
@@ -1611,22 +1615,22 @@
         <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P7" t="s" s="2">
         <v>77</v>
@@ -1675,25 +1679,25 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>77</v>
@@ -1701,21 +1705,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>77</v>
@@ -1724,19 +1728,19 @@
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1786,40 +1790,40 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1835,19 +1839,19 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -1897,7 +1901,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1909,24 +1913,24 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1946,19 +1950,19 @@
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2008,7 +2012,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2020,24 +2024,24 @@
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2057,19 +2061,19 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2119,7 +2123,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2131,13 +2135,13 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -2145,10 +2149,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2159,7 +2163,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2168,22 +2172,22 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -2232,28 +2236,28 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="170">
   <si>
     <t>Property</t>
   </si>
@@ -253,10 +253,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>Name of a human - parts and usage　人の名前情報、その一部分と使い方</t>
@@ -1061,16 +1057,16 @@
         <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1129,27 +1125,27 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1160,25 +1156,25 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1229,13 +1225,13 @@
         <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>77</v>
@@ -1247,7 +1243,7 @@
         <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM3" t="s" s="2">
         <v>77</v>
@@ -1255,14 +1251,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1281,16 +1277,16 @@
         <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1328,19 +1324,19 @@
         <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
@@ -1352,13 +1348,13 @@
         <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>77</v>
@@ -1366,13 +1362,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>77</v>
@@ -1382,7 +1378,7 @@
         <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>77</v>
@@ -1394,16 +1390,16 @@
         <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1453,7 +1449,7 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -1465,13 +1461,13 @@
         <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>77</v>
@@ -1479,10 +1475,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1493,31 +1489,31 @@
         <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="J6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="N6" t="s" s="2">
+      <c r="O6" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="P6" t="s" s="2">
         <v>77</v>
@@ -1542,14 +1538,14 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
       </c>
@@ -1566,36 +1562,36 @@
         <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AK6" t="s" s="2">
+      <c r="AL6" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AL6" t="s" s="2">
+      <c r="AM6" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AM6" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1606,31 +1602,31 @@
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="L7" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="N7" t="s" s="2">
+      <c r="O7" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="P7" t="s" s="2">
         <v>77</v>
@@ -1679,25 +1675,25 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK7" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>77</v>
@@ -1705,42 +1701,42 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="L8" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1790,40 +1786,40 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK8" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AL8" t="s" s="2">
+      <c r="AM8" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1839,19 +1835,19 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -1901,7 +1897,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1913,24 +1909,24 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK9" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AL9" t="s" s="2">
+      <c r="AM9" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1950,19 +1946,19 @@
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2012,7 +2008,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2024,24 +2020,24 @@
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AL10" t="s" s="2">
+      <c r="AM10" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2061,19 +2057,19 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>159</v>
-      </c>
       <c r="N11" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2123,7 +2119,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2135,13 +2131,13 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -2149,10 +2145,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2163,7 +2159,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2172,22 +2168,22 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -2236,28 +2232,28 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -293,10 +293,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -316,13 +316,13 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -338,8 +338,8 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>HumanName.extension:nameRepresentationUse</t>
@@ -352,7 +352,7 @@
 </t>
   </si>
   <si>
-    <t>ABC | IDE | SYL</t>
+    <t>ABC |IDE |Syl / ABC | IDE | SYL</t>
   </si>
   <si>
     <t>Name Representation.
@@ -376,7 +376,7 @@
 </t>
   </si>
   <si>
-    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+    <t>通常|公式|温度|ニックネーム|匿名|古い|乙女 / usual | official | temp | nickname | anonymous | old | maiden</t>
   </si>
   <si>
     <t>Identifies the purpose for this name.
@@ -394,13 +394,13 @@
     <t>required</t>
   </si>
   <si>
-    <t>The use of a human name.</t>
+    <t>人間名の使用。 / The use of a human name.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -427,7 +427,7 @@
 テキスト要素の表現とその部分構成要素の両方を提供できる。名前を更新するアプリケーションは、テキストと部分構成要素の両方が存在する場合、部分構成要素にないコンテンツがテキスト要素に含まれないようにする必要がある。姓と名をこの順番で半角空白1文字を区切り文字として格納する</t>
   </si>
   <si>
-    <t>A renderable, unencoded form.</t>
+    <t>レンダリング可能で、不コード化されていないフォーム。 / A renderable, unencoded form.</t>
   </si>
   <si>
     <t>implied by XPN.11</t>
@@ -549,7 +549,7 @@
 Period（期間）は、Duration（時間区間＝経過時間の測定値）には使用されない。 [Duration]（datatypes.html＃Duration）を参照のこと。</t>
   </si>
   <si>
-    <t>Allows names to be placed in historical context.</t>
+    <t>名前を歴史的な文脈に配置できます。 / Allows names to be placed in historical context.</t>
   </si>
   <si>
     <t>XPN.13 + XPN.14</t>
@@ -898,7 +898,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="25.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.1640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="40.62109375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="132">
   <si>
     <t>Property</t>
   </si>
@@ -127,123 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: ServD</t>
   </si>
   <si>
     <t/>
@@ -680,10 +563,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -865,7 +748,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM12"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -878,11 +761,10 @@
     <col min="2" max="2" width="22.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="23.71484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="13.0859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="38.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -890,24 +772,24 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="95.703125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="8.8046875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="35.1640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="40.62109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="19.48828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="56.17578125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="30.98828125" customWidth="true" bestFit="true"/>
@@ -915,1349 +797,1230 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>68</v>
+      </c>
       <c r="D4" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="N5" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O5" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="O5" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="P5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="M6" t="s" s="2">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N9" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>149</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>170</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="171">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,123 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: ServD</t>
   </si>
   <si>
     <t/>
@@ -563,10 +680,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -748,7 +865,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM11"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -761,10 +878,11 @@
     <col min="2" max="2" width="22.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="23.71484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="13.0859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="38.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -772,24 +890,24 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="95.703125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="8.8046875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="35.1640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="40.62109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="19.48828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="56.17578125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="30.98828125" customWidth="true" bestFit="true"/>
@@ -797,1230 +915,1349 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AJ1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="K1" t="s" s="1">
         <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O7" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="O7" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>110</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AK11" t="s" s="2">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -157,6 +157,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>XPN</t>
   </si>
   <si>
@@ -281,10 +285,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>XPN.7, but often indicated by which field contains the name</t>
@@ -895,24 +895,24 @@
         <v>45</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -923,7 +923,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -935,13 +935,13 @@
         <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -992,13 +992,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1010,7 +1010,7 @@
         <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>38</v>
@@ -1018,14 +1018,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -1044,16 +1044,16 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1091,19 +1091,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -1115,13 +1115,13 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM3" t="s" s="2">
         <v>38</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>38</v>
@@ -1145,7 +1145,7 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
@@ -1157,16 +1157,16 @@
         <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1216,7 +1216,7 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
@@ -1228,13 +1228,13 @@
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>38</v>
@@ -1242,10 +1242,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1256,31 +1256,31 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s" s="2">
         <v>38</v>
@@ -1305,13 +1305,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -1329,19 +1329,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>85</v>
@@ -1369,7 +1369,7 @@
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -1378,10 +1378,10 @@
         <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>89</v>
@@ -1448,13 +1448,13 @@
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>93</v>
@@ -1482,7 +1482,7 @@
         <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>38</v>
@@ -1491,10 +1491,10 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>97</v>
@@ -1559,13 +1559,13 @@
         <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>100</v>
@@ -1602,10 +1602,10 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>105</v>
@@ -1676,7 +1676,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>108</v>
@@ -1713,10 +1713,10 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>112</v>
@@ -1787,7 +1787,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>115</v>
@@ -1824,10 +1824,10 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>119</v>
@@ -1898,7 +1898,7 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>121</v>
@@ -1926,7 +1926,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -1935,7 +1935,7 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>124</v>
@@ -2005,13 +2005,13 @@
         <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>129</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="130">
   <si>
     <t>Property</t>
   </si>
@@ -142,15 +142,13 @@
 </t>
   </si>
   <si>
-    <t>Name of a human - parts and usage　人の名前情報、その一部分と使い方</t>
-  </si>
-  <si>
-    <t>A human's name with the ability to identify parts and usage.
-識別のための人の名前情報</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.
-名前が変更されたり、違っていると指摘されたり、コンテキストによって使われる名前が異なる場合がある。名前は、コンテキストに応じて重要性が異なるさまざまなタイプの部分に分割される場合があり、部分への分割は必ずしも重要ではない。個人名の場合、さまざまな部分に暗黙の意味が含まれている場合と含まれていない場合がある。さまざまな文化が名前の部分にさまざまな重要性を関連付けており、システムが世界中の名前の部分を気にする必要がある程度は大きく異なる。</t>
+    <t>人の名前情報、その一部分と使い方</t>
+  </si>
+  <si>
+    <t>識別のための人の名前情報</t>
+  </si>
+  <si>
+    <t>名前が変更されたり、違っていると指摘されたり、コンテキストによって使われる名前が異なる場合がある。名前は、コンテキストに応じて重要性が異なるさまざまなタイプの部分に分割される場合があり、部分への分割は必ずしも重要ではない。個人名の場合、さまざまな部分に暗黙の意味が含まれている場合と含まれていない場合がある。さまざまな文化が名前の部分にさまざまな重要性を関連付けており、システムが世界中の名前の部分を気にする必要がある程度は大きく異なる。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -242,12 +240,10 @@
     <t>ABC |IDE |Syl / ABC | IDE | SYL</t>
   </si>
   <si>
-    <t>Name Representation.
-名前の表現方法</t>
-  </si>
-  <si>
-    <t>The transcription of the name - how it is represented (for e.g. Japanese names).
-名前の文字起こし-表現方法（日本の名前など）。</t>
+    <t>名前の表現方法</t>
+  </si>
+  <si>
+    <t>名前の文字起こし-表現方法（日本の名前など）。</t>
   </si>
   <si>
     <t>ENXP.use</t>
@@ -263,19 +259,16 @@
 </t>
   </si>
   <si>
-    <t>通常|公式|温度|ニックネーム|匿名|古い|乙女 / usual | official | temp | nickname | anonymous | old | maiden</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this name.
-この名前の使用目的</t>
-  </si>
-  <si>
-    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.
-アプリケーションは、名前が明示的に一時的な名前（temp ）あるいは以前の名前だ（old ）と設定されていない場合には、現時点での名前だとみなしてよい。</t>
-  </si>
-  <si>
-    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.
-一連の名前の中から、特定の使用状況に適した名前を選択できるようになる。</t>
+    <t>通常|公式|一時的|ニックネーム|匿名|古い|未婚女性 / usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>この名前の目的を特定します。 / Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>アプリケーションは、一時的または古いものであると明示的に言わない限り、名前が最新であると想定できます。 / Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>特定の使用のコンテキストに適切な名前を許可します。名前のセットの中から選択できます。 / Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
   </si>
   <si>
     <t>required</t>
@@ -299,15 +292,13 @@
     <t>HumanName.text</t>
   </si>
   <si>
-    <t>Text representation of the full name　名前全体のテキスト表現。姓と名をこの順番で半角空白1文字を区切り文字として格納する</t>
-  </si>
-  <si>
-    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.
-アプリケーションUIなどで、表示する名前全体を指定する。名前の特定の部分の代わり、または特定の部分と同じとして使われることがある。姓と名をこの順番で半角空白1文字を区切り文字として格納する</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.
-テキスト要素の表現とその部分構成要素の両方を提供できる。名前を更新するアプリケーションは、テキストと部分構成要素の両方が存在する場合、部分構成要素にないコンテンツがテキスト要素に含まれないようにする必要がある。姓と名をこの順番で半角空白1文字を区切り文字として格納する</t>
+    <t>フルネームのテキスト表現 / Text representation of the full name</t>
+  </si>
+  <si>
+    <t>表示する必要があるため、名前全体を指定します。アプリケーションUIで。これは、特定の部分の代わりに、または特定の部分と同様に提供される場合があります。 / Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>テキスト表現とパーツの両方を提供できます。名前を更新するアプリケーションは、テキストとパーツの両方が存在する場合、一部に見つからないテキストにコンテンツが含まれていないことを保証するものとします。 / Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
   </si>
   <si>
     <t>レンダリング可能で、不コード化されていないフォーム。 / A renderable, unencoded form.</t>
@@ -326,15 +317,13 @@
 </t>
   </si>
   <si>
-    <t>Family name (often called 'Surname')　名前のうち姓の部分。ファミリ名</t>
-  </si>
-  <si>
-    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.
-家系図にリンクする名前の部分。一部の文化では、息子の家系の名前は父親の名である。</t>
-  </si>
-  <si>
-    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).
-ファミリ名は、拡張子（de、nl、es関連のカルチャ）を使用して特定の部分に分解できる。</t>
+    <t>姓（「姓」と呼ばれることが多い） / Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>系図にリンクする名前の部分。一部の文化（例：エリトリア）では、息子の姓は父親の名です。 / The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>姓は、拡張機能（DE、NL、ES関連の培養）を使用して特定の部品に分解できます。 / Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
   </si>
   <si>
     <t>XPN.1/FN.1</t>
@@ -353,15 +342,13 @@
 middle name</t>
   </si>
   <si>
-    <t>Given names (not always 'first'). Includes middle names　名前の名の部分で、ミドルネームを含む</t>
-  </si>
-  <si>
-    <t>Given name.
-名前の名の部分。</t>
-  </si>
-  <si>
-    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to practical limitations.  This element is not called "first name" since given names do not always come first.
-イニシャルのみが記録されている場合は、フルネームの部分の代わりに使用できる。イニシャルは複数の名前に分けることができるが、多くの場合、実用的な制限のためではない。名が常に最初に来るとは限らないため、この要素は「first name」とは呼ばない。</t>
+    <t>指定された名前（常に「最初」ではありません）。ミドルネームが含まれています / Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>名。 / Given name.</t>
+  </si>
+  <si>
+    <t>イニシャルのみが記録されている場合、フルネームパーツの代わりに使用できます。イニシャルは複数の指定された名前に分離される場合がありますが、多くの場合、特定の制限によるものではありません。指定された名前が常に最初に来るとは限らないため、この要素は「名」とは呼ばれません。 / If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
   </si>
   <si>
     <t>XPN.2 + XPN.3</t>
@@ -376,15 +363,10 @@
     <t>HumanName.prefix</t>
   </si>
   <si>
-    <t>Parts that come before the name　名前の名の前に来る部分</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.
-学問的、法的な、雇用または貴族の地位などのために称号として取得され、名前の先頭に表示される名前の一部。</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-FHIR文字列のサイズは1MBを超えてはならないことに注意。</t>
+    <t>名前の前に来るパーツ / Parts that come before the name</t>
+  </si>
+  <si>
+    <t>アカデミック、リーガル、雇用、または貴族のステータスなどのためにタイトルとして取得され、名前の冒頭に表示される名前の一部。 / Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
   </si>
   <si>
     <t>XPN.5</t>
@@ -399,11 +381,10 @@
     <t>HumanName.suffix</t>
   </si>
   <si>
-    <t>Parts that come after the name　名前の名のあとに続く部分</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.
-学問的、法的な、雇用または貴族の地位などのために称号として取得され、名前の最後に表示される名前の一部。</t>
+    <t>名前の後に来るパーツ / Parts that come after the name</t>
+  </si>
+  <si>
+    <t>アカデミック、リーガル、雇用、または貴族のステータスなどのためにタイトルとして取得され、名前の最後に表示される名前の一部。 / Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
   </si>
   <si>
     <t>XPN/4</t>
@@ -419,20 +400,13 @@
 </t>
   </si>
   <si>
-    <t>Time period when name was/is in use　名前が使われる期間</t>
-  </si>
-  <si>
-    <t>Indicates the period of time when this name was valid for the named person.
-この名前が指名された人に対して有効であった期間。</t>
-  </si>
-  <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
-Period（期間）は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に投与する」）を指定する。
-Period（期間）は、Duration（時間区間＝経過時間の測定値）には使用されない。 [Duration]（datatypes.html＃Duration）を参照のこと。</t>
-  </si>
-  <si>
-    <t>名前を歴史的な文脈に配置できます。 / Allows names to be placed in historical context.</t>
+    <t>名前が使用されていた期間 / Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>この名前が指定者に対して有効である期間を示します。 / Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>名前を履歴上の文脈に配置できます。 / Allows names to be placed in historical context.</t>
   </si>
   <si>
     <t>XPN.13 + XPN.14</t>
@@ -770,7 +744,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="95.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="143.6953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1724,9 +1698,7 @@
       <c r="M9" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N9" t="s" s="2">
-        <v>114</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -1790,21 +1762,21 @@
         <v>46</v>
       </c>
       <c r="AK9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL9" t="s" s="2">
+      <c r="AM9" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1830,14 +1802,12 @@
         <v>52</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>114</v>
-      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -1886,7 +1856,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -1901,10 +1871,10 @@
         <v>46</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>38</v>
@@ -1912,10 +1882,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1938,19 +1908,17 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>38</v>
@@ -1999,7 +1967,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2014,13 +1982,13 @@
         <v>46</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="169">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,123 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: ServD</t>
   </si>
   <si>
     <t/>
@@ -722,7 +839,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM11"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -735,10 +852,11 @@
     <col min="2" max="2" width="22.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="23.71484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="13.0859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="38.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -746,24 +864,24 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="143.6953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="8.8046875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="35.1640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="40.62109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="19.48828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="56.17578125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="30.98828125" customWidth="true" bestFit="true"/>
@@ -771,1224 +889,1343 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="K1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="L1" t="s" s="1">
         <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>62</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>38</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O7" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="O7" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>110</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>38</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="130">
   <si>
     <t>Property</t>
   </si>
@@ -127,123 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: ServD</t>
   </si>
   <si>
     <t/>
@@ -839,7 +722,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM12"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -852,11 +735,10 @@
     <col min="2" max="2" width="22.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="23.71484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="13.0859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="38.7578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -864,24 +746,24 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="143.6953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="8.8046875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="35.1640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="40.62109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="19.48828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="56.17578125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="30.98828125" customWidth="true" bestFit="true"/>
@@ -889,1343 +771,1224 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AJ1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AK1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>62</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="D4" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="M5" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O5" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="O5" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="P5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="N6" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>149</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>155</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>168</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -354,7 +354,7 @@
 </t>
   </si>
   <si>
-    <t>ABC |IDE |Syl / ABC | IDE | SYL</t>
+    <t>ABC | IDE | SYL</t>
   </si>
   <si>
     <t>名前の表現方法</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-humanname.xlsx
@@ -376,7 +376,7 @@
 </t>
   </si>
   <si>
-    <t>通常|公式|一時的|ニックネーム|匿名|古い|未婚女性 / usual | official | temp | nickname | anonymous | old | maiden</t>
+    <t>通常|公式|温度|ニックネーム|匿名|古い|乙女 / usual | official | temp | nickname | anonymous | old | maiden</t>
   </si>
   <si>
     <t>この名前の目的を特定します。 / Identifies the purpose for this name.</t>
@@ -523,7 +523,7 @@
     <t>この名前が指定者に対して有効である期間を示します。 / Indicates the period of time when this name was valid for the named person.</t>
   </si>
   <si>
-    <t>名前を履歴上の文脈に配置できます。 / Allows names to be placed in historical context.</t>
+    <t>名前を歴史的な文脈に配置できます。 / Allows names to be placed in historical context.</t>
   </si>
   <si>
     <t>XPN.13 + XPN.14</t>
